--- a/overall_stats.xlsx
+++ b/overall_stats.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricerca\Altro\AssistiveGenerativeAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricerca\Altre\AssistiveGenerativeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8639F03-6F27-4044-8CE2-0891086B29A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="11385"/>
+    <workbookView xWindow="4230" yWindow="330" windowWidth="24075" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Univaq</t>
   </si>
@@ -70,11 +82,23 @@
   <si>
     <t>Questions</t>
   </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Weather.com</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\(0\%\)"/>
   </numFmts>
@@ -200,26 +224,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -277,7 +304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -340,9 +366,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$3:$A$11</c:f>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Univaq</c:v>
                 </c:pt>
@@ -368,6 +394,18 @@
                   <c:v>Youtube</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Weather.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reddit</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Cambridge Dictionary</c:v>
                 </c:pt>
               </c:strCache>
@@ -375,10 +413,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$3:$C$11</c:f>
+              <c:f>Foglio1!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -404,6 +442,18 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -444,10 +494,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$3:$E$11</c:f>
+              <c:f>Foglio1!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -473,6 +523,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -510,10 +572,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$G$3:$G$11</c:f>
+              <c:f>Foglio1!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -539,6 +601,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -755,7 +829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,9 +891,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$3:$A$11</c:f>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Univaq</c:v>
                 </c:pt>
@@ -846,6 +919,18 @@
                   <c:v>Youtube</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Weather.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reddit</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Cambridge Dictionary</c:v>
                 </c:pt>
               </c:strCache>
@@ -853,10 +938,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$I$3:$I$11</c:f>
+              <c:f>Foglio1!$I$3:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -882,6 +967,18 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -922,10 +1019,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$3:$K$11</c:f>
+              <c:f>Foglio1!$K$3:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -951,6 +1048,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -978,7 +1087,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1007,10 +1116,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$M$3:$M$11</c:f>
+              <c:f>Foglio1!$M$3:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1036,6 +1145,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2308,18 +2429,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2338,18 +2465,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2629,24 +2762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B3:B11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
@@ -2655,511 +2788,752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <f>C3+E3+G3+I3+K3+M3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <f>C3/($C3+$E3+$G3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F11" si="0">E3/($C3+$E3+$G3)*100</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F15" si="0">E3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H11" si="1">G3/($C3+$E3+$G3)*100</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H15" si="1">G3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>I3/($I3+$K3+$M3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L11" si="2">K3/($I3+$K3+$M3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L15" si="2">K3/($I3+$K3+$M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N11" si="3">M3/($I3+$K3+$M3)*100</f>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N15" si="3">M3/($I3+$K3+$M3)*100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <f t="shared" ref="B4:B11" si="4">C4+E4+G4+I4+K4+M4</f>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B15" si="4">C4+E4+G4+I4+K4+M4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D11" si="5">C4/($C4+$E4+$G4)*100</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D15" si="5">C4/($C4+$E4+$G4)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J11" si="6">I4/($I4+$K4+$M4)*100</f>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J15" si="6">I4/($I4+$K4+$M4)*100</f>
         <v>100</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="6"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="6"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B15" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D15" s="3">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I15" s="2">
         <v>4</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J15" s="3">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11">
+        <f>SUM(B3:B15)</f>
+        <v>100</v>
+      </c>
+      <c r="C16" s="12">
+        <f>SUM(C3:C15)</f>
+        <v>27</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12">
+        <f>SUM(E3:E15)</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12">
+        <f>SUM(G3:G15)</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12">
+        <f>SUM(I3:I15)</f>
+        <v>38</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12">
+        <f>SUM(K3:K15)</f>
+        <v>10</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12">
+        <f>SUM(M3:M15)</f>
+        <v>12</v>
+      </c>
+      <c r="N16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/overall_stats.xlsx
+++ b/overall_stats.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricerca\Altre\AssistiveGenerativeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8639F03-6F27-4044-8CE2-0891086B29A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251DC584-EE08-467F-AADB-CA49F36DB06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="330" windowWidth="24075" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="330" windowWidth="25965" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dati" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafico_Structure" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafico_Navigation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -184,11 +186,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -200,9 +272,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -211,11 +296,172 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -224,29 +470,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -345,7 +670,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$2</c:f>
+              <c:f>Dati!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -366,7 +691,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:f>Dati!$A$3:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -413,7 +738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$3:$C$15</c:f>
+              <c:f>Dati!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -461,7 +786,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000000-75EE-4D2D-89F4-50C156F02CEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -470,7 +795,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$2</c:f>
+              <c:f>Dati!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,7 +819,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$3:$E$15</c:f>
+              <c:f>Dati!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -542,7 +867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000001-75EE-4D2D-89F4-50C156F02CEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -551,7 +876,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$G$2</c:f>
+              <c:f>Dati!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -572,7 +897,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$G$3:$G$15</c:f>
+              <c:f>Dati!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -620,7 +945,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000002-75EE-4D2D-89F4-50C156F02CEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,11 +1106,6 @@
       <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -870,7 +1190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$I$2</c:f>
+              <c:f>Dati!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +1211,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:f>Dati!$A$3:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -938,7 +1258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$I$3:$I$15</c:f>
+              <c:f>Dati!$I$3:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -986,7 +1306,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000000-C535-4F28-BAB9-0342AE6EF7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -995,7 +1315,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$K$2</c:f>
+              <c:f>Dati!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1019,7 +1339,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$3:$K$15</c:f>
+              <c:f>Dati!$K$3:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1067,7 +1387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000001-C535-4F28-BAB9-0342AE6EF7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,7 +1396,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$M$2</c:f>
+              <c:f>Dati!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1110,13 +1430,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-D640-49D8-BA77-B9FBC7FB0FA3}"/>
+                <c16:uniqueId val="{00000003-C535-4F28-BAB9-0342AE6EF7F3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$M$3:$M$15</c:f>
+              <c:f>Dati!$M$3:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1164,7 +1484,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D955-4829-B72B-85C3CC291173}"/>
+              <c16:uniqueId val="{00000004-C535-4F28-BAB9-0342AE6EF7F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,11 +1645,6 @@
       <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2423,31 +2738,45 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBA68947-1E6A-4212-857E-BB3971DD12C0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AED525BE-642C-4668-AC11-86157F7B25DE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9164A7A-EC6A-78B4-BC51-4CE2BA9ECF47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2460,30 +2789,27 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA8806-86A8-47BE-0E2A-24D1602CD693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2491,12 +2817,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2763,780 +3089,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
         <f>C3+E3+G3+I3+K3+M3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="27">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="28">
         <f>C3/($C3+$E3+$G3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F15" si="0">E3/($C3+$E3+$G3)*100</f>
+      <c r="F3" s="28">
+        <f t="shared" ref="F3:F16" si="0">E3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H15" si="1">G3/($C3+$E3+$G3)*100</f>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3:H16" si="1">G3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="27">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="28">
         <f>I3/($I3+$K3+$M3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L15" si="2">K3/($I3+$K3+$M3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ref="L3:L16" si="2">K3/($I3+$K3+$M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
         <v>2</v>
       </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N15" si="3">M3/($I3+$K3+$M3)*100</f>
+      <c r="N3" s="30">
+        <f t="shared" ref="N3:N16" si="3">M3/($I3+$K3+$M3)*100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="25">
         <f t="shared" ref="B4:B15" si="4">C4+E4+G4+I4+K4+M4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="27">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D15" si="5">C4/($C4+$E4+$G4)*100</f>
+      <c r="D4" s="28">
+        <f t="shared" ref="D4:D16" si="5">C4/($C4+$E4+$G4)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="28">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="27">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J15" si="6">I4/($I4+$K4+$M4)*100</f>
+      <c r="J4" s="28">
+        <f t="shared" ref="J4:J16" si="6">I4/($I4+$K4+$M4)*100</f>
         <v>100</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="25">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="28">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="29">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="27">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="28">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
+      <c r="N5" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="25">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="27">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="28">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="27">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="28">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="28">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="28">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="27">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="28">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="25">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="28">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="30">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="27">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="28">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="25">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="28">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="27">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="28">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="25">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="27">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="28">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="27">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="28">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="28">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="29">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="25">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="27">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="28">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="27">
         <v>10</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="28">
         <f t="shared" si="6"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="29">
         <v>3</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="28">
         <f t="shared" si="2"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="29">
         <v>1</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="30">
         <f t="shared" si="3"/>
         <v>7.1428571428571423</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="25">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="28">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="27">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="28">
         <f t="shared" si="6"/>
         <v>44.444444444444443</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="28">
         <f t="shared" si="2"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="29">
         <v>4</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="30">
         <f t="shared" si="3"/>
         <v>44.444444444444443</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="25">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="29">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="29">
         <v>2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="28">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="29">
         <v>2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="30">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="25">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="29">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="27">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="28">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="29">
         <v>3</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="30">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="26">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="31">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="32">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="31">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="32">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="33">
         <v>2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="32">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="18">
         <f>SUM(B3:B15)</f>
         <v>100</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="20">
         <f>SUM(C3:C15)</f>
         <v>27</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12">
+      <c r="D16" s="35">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="E16" s="17">
         <f>SUM(E3:E15)</f>
         <v>7</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12">
+      <c r="F16" s="35">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="G16" s="17">
         <f>SUM(G3:G15)</f>
         <v>6</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12">
+      <c r="H16" s="36">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I16" s="20">
         <f>SUM(I3:I15)</f>
         <v>38</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12">
+      <c r="J16" s="35">
+        <f t="shared" si="6"/>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="K16" s="17">
         <f>SUM(K3:K15)</f>
         <v>10</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="12">
+      <c r="L16" s="35">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="M16" s="17">
         <f>SUM(M3:M15)</f>
         <v>12</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="36">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16">
+        <f>C16+E16+G16</f>
+        <v>40</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16">
+        <f>I16+K16+M16</f>
+        <v>60</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="C2:D2"/>
@@ -3548,6 +3920,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/overall_stats.xlsx
+++ b/overall_stats.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricerca\Altre\AssistiveGenerativeAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricerca\Altro\AssistiveGenerativeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251DC584-EE08-467F-AADB-CA49F36DB06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="330" windowWidth="25965" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="330" windowWidth="25965" windowHeight="14400" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafico_Structure" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafico_Navigation" sheetId="3" r:id="rId3"/>
+    <sheet name="Structure-per-site" sheetId="4" r:id="rId2"/>
+    <sheet name="Interaction-per-site" sheetId="5" r:id="rId3"/>
+    <sheet name="Structure-overall" sheetId="6" r:id="rId4"/>
+    <sheet name="Interaction-overall" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\(0\%\)"/>
   </numFmts>
@@ -472,62 +473,20 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -572,6 +531,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -610,12 +611,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -623,12 +621,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Structure Questions</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -642,12 +645,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -663,7 +663,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -681,7 +681,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -786,7 +789,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75EE-4D2D-89F4-50C156F02CEC}"/>
+              <c16:uniqueId val="{00000000-B51C-4611-BBA7-D9482DC656FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -805,12 +808,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +875,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75EE-4D2D-89F4-50C156F02CEC}"/>
+              <c16:uniqueId val="{00000001-B51C-4611-BBA7-D9482DC656FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,9 +894,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +961,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75EE-4D2D-89F4-50C156F02CEC}"/>
+              <c16:uniqueId val="{00000002-B51C-4611-BBA7-D9482DC656FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,7 +973,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="100"/>
         <c:axId val="1901096880"/>
         <c:axId val="1901085232"/>
@@ -987,16 +1003,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1800000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1034,7 +1047,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1050,12 +1063,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1077,6 +1087,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1130,12 +1172,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1143,12 +1182,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Navigation Questions</a:t>
+              <a:rPr lang="it-IT" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Navigation and Interaction Questions</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1162,12 +1206,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1183,7 +1224,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1201,7 +1242,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1306,7 +1350,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C535-4F28-BAB9-0342AE6EF7F3}"/>
+              <c16:uniqueId val="{00000000-D7B8-4DA6-94FC-4CADF4A80BFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,12 +1369,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,7 +1436,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C535-4F28-BAB9-0342AE6EF7F3}"/>
+              <c16:uniqueId val="{00000001-D7B8-4DA6-94FC-4CADF4A80BFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1406,9 +1455,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,9 +1477,17 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1430,7 +1495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C535-4F28-BAB9-0342AE6EF7F3}"/>
+                <c16:uniqueId val="{00000003-D7B8-4DA6-94FC-4CADF4A80BFE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1484,7 +1549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C535-4F28-BAB9-0342AE6EF7F3}"/>
+              <c16:uniqueId val="{00000004-D7B8-4DA6-94FC-4CADF4A80BFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1496,7 +1561,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="100"/>
         <c:axId val="1901096880"/>
         <c:axId val="1901085232"/>
@@ -1526,16 +1591,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1800000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1573,7 +1635,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1589,12 +1651,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1616,6 +1675,708 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Structure</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0977-41CF-8392-BE0E41E48A73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="smCheck">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0977-41CF-8392-BE0E41E48A73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0977-41CF-8392-BE0E41E48A73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Dati!$C$2,Dati!$E$2,Dati!$G$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Partially</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati!$C$16,Dati!$E$16,Dati!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0977-41CF-8392-BE0E41E48A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partially</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-0977-41CF-8392-BE0E41E48A73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Dati!$C$2,Dati!$E$2,Dati!$G$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Partially</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dati!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0977-41CF-8392-BE0E41E48A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0977-41CF-8392-BE0E41E48A73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Dati!$C$2,Dati!$E$2,Dati!$G$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Partially</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dati!$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0977-41CF-8392-BE0E41E48A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Navigation/Interaction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Navigation and Interaction</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C8C3-445D-94FB-610EDB9A4C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="smCheck">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C8C3-445D-94FB-610EDB9A4C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C8C3-445D-94FB-610EDB9A4C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Dati!$I$2,Dati!$K$2,Dati!$M$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Partially</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati!$I$16,Dati!$K$16,Dati!$M$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C8C3-445D-94FB-610EDB9A4C64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1728,6 +2489,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2738,11 +3579,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBA68947-1E6A-4212-857E-BB3971DD12C0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2750,10 +4629,32 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AED525BE-642C-4668-AC11-86157F7B25DE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2764,16 +4665,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="9295379" cy="6072187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9164A7A-EC6A-78B4-BC51-4CE2BA9ECF47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2797,16 +4692,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="9295379" cy="6072187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA8806-86A8-47BE-0E2A-24D1602CD693}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295379" cy="6072187"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295379" cy="6072187"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3088,820 +5031,818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
         <f>C3+E3+G3+I3+K3+M3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="14">
         <f>C3/($C3+$E3+$G3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F16" si="0">E3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H16" si="1">G3/($C3+$E3+$G3)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="13">
         <v>4</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="14">
         <f>I3/($I3+$K3+$M3)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="K3" s="29">
-        <v>0</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
         <f t="shared" ref="L3:L16" si="2">K3/($I3+$K3+$M3)*100</f>
         <v>0</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="15">
         <v>2</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="16">
         <f t="shared" ref="N3:N16" si="3">M3/($I3+$K3+$M3)*100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="11">
         <f t="shared" ref="B4:B15" si="4">C4+E4+G4+I4+K4+M4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:D16" si="5">C4/($C4+$E4+$G4)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="14">
         <f t="shared" ref="J4:J16" si="6">I4/($I4+$K4+$M4)*100</f>
         <v>100</v>
       </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="28">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="29">
-        <v>0</v>
-      </c>
-      <c r="N4" s="30">
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="14">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="29">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-      <c r="L5" s="28">
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="29">
-        <v>0</v>
-      </c>
-      <c r="N5" s="30">
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="13">
         <v>2</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="14">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M6" s="29">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="11">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="14">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E7" s="29">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="15">
         <v>1</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="16">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="13">
         <v>2</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K7" s="29">
-        <v>0</v>
-      </c>
-      <c r="L7" s="28">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="29">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="11">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="14">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="15">
         <v>1</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="16">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="13">
         <v>3</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="30">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="11">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="14">
         <f t="shared" si="5"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="16">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="13">
         <v>3</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28">
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="30">
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="11">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="13">
         <v>3</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="14">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M10" s="29">
-        <v>0</v>
-      </c>
-      <c r="N10" s="30">
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="11">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="14">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="13">
         <v>10</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="14">
         <f t="shared" si="6"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="15">
         <v>3</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="14">
         <f t="shared" si="2"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="15">
         <v>1</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="16">
         <f t="shared" si="3"/>
         <v>7.1428571428571423</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="11">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="14">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="13">
         <v>4</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="14">
         <f t="shared" si="6"/>
         <v>44.444444444444443</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="14">
         <f t="shared" si="2"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="15">
         <v>4</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="16">
         <f t="shared" si="3"/>
         <v>44.444444444444443</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="15">
         <v>1</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="15">
         <v>2</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="15">
         <v>2</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="16">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="13">
         <v>1</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="14">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K14" s="29">
-        <v>0</v>
-      </c>
-      <c r="L14" s="28">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="15">
         <v>3</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="16">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="12">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="18">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="17">
         <v>4</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="18">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="19">
         <v>2</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="18">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="M15" s="33">
-        <v>0</v>
-      </c>
-      <c r="N15" s="34">
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18">
+      <c r="A16" s="28"/>
+      <c r="B16" s="26">
         <f>SUM(B3:B15)</f>
         <v>100</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="8">
         <f>SUM(C3:C15)</f>
         <v>27</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="21">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="7">
         <f>SUM(E3:E15)</f>
         <v>7</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="21">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="7">
         <f>SUM(G3:G15)</f>
         <v>6</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="8">
         <f>SUM(I3:I15)</f>
         <v>38</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="21">
         <f t="shared" si="6"/>
         <v>63.333333333333329</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="7">
         <f>SUM(K3:K15)</f>
         <v>10</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="21">
         <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="7">
         <f>SUM(M3:M15)</f>
         <v>12</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="22">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="23">
         <f>C16+E16+G16</f>
         <v>40</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23">
         <f>I16+K16+M16</f>
         <v>60</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
